--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ильнар\Downloads\GOSH API NoQueue\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ильнар\Downloads\GOSH UI NoQueue\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F309E5D4-B164-424E-A7DD-62FF9CC9C384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16DA97-5C53-4821-A80F-98BA93FE31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26640" yWindow="1230" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22860" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Имя</t>
   </si>
@@ -87,9 +87,6 @@
     <t>https://rivegauche.ru/</t>
   </si>
   <si>
-    <t>RpaLessonURL</t>
-  </si>
-  <si>
     <t>URL сайта РИВ ГОШ, откуда будет браться информация по товарам</t>
   </si>
   <si>
@@ -109,6 +106,18 @@
   </si>
   <si>
     <t>DbCred</t>
+  </si>
+  <si>
+    <t>RiveGauchUrl</t>
+  </si>
+  <si>
+    <t>MailCred</t>
+  </si>
+  <si>
+    <t>Email_CredTestRG</t>
+  </si>
+  <si>
+    <t>Учетные данные от почтового ящика для рассылки</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -581,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -590,13 +599,13 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
@@ -607,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -619,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -631,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -639,20 +648,31 @@
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7"/>
     </row>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ильнар\Downloads\GOSH UI NoQueue\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A16DA97-5C53-4821-A80F-98BA93FE31B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBCE5E5-7001-4AC6-B4C8-0DB838052F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22860" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,15 +90,9 @@
     <t>URL сайта РИВ ГОШ, откуда будет браться информация по товарам</t>
   </si>
   <si>
-    <t>IINazyrbaev@1cbit.com</t>
-  </si>
-  <si>
     <t>TestMail</t>
   </si>
   <si>
-    <t>smtp-mail.outlook.com</t>
-  </si>
-  <si>
     <t>DB_TestProjectUI</t>
   </si>
   <si>
@@ -118,6 +112,12 @@
   </si>
   <si>
     <t>Учетные данные от почтового ящика для рассылки</t>
+  </si>
+  <si>
+    <t>smtp.yandex.com</t>
+  </si>
+  <si>
+    <t>IINazyrbaev@1cbit.ru</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E543"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>10</v>
@@ -599,13 +599,13 @@
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>18</v>
@@ -616,7 +616,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -640,7 +640,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>18</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>19</v>
